--- a/biology/Histoire de la zoologie et de la botanique/Liste_des_simples_traités_dans_le_Tractatus_de_herbis___F-K/Liste_des_simples_traités_dans_le_Tractatus_de_herbis___F-K.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Liste_des_simples_traités_dans_le_Tractatus_de_herbis___F-K/Liste_des_simples_traités_dans_le_Tractatus_de_herbis___F-K.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_Tractatus_de_herbis_:_F-K</t>
+          <t>Liste_des_simples_traités_dans_le_Tractatus_de_herbis_:_F-K</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_Tractatus_de_herbis_:_F-K</t>
+          <t>Liste_des_simples_traités_dans_le_Tractatus_de_herbis_:_F-K</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cliquer sur les images pour atteindre les catégories dédiées sur Commons.</t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_Tractatus_de_herbis_:_F-K</t>
+          <t>Liste_des_simples_traités_dans_le_Tractatus_de_herbis_:_F-K</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cliquer sur les images pour atteindre les catégories dédiées sur Commons.</t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_Tractatus_de_herbis_:_F-K</t>
+          <t>Liste_des_simples_traités_dans_le_Tractatus_de_herbis_:_F-K</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cliquer sur les images pour atteindre les catégories dédiées sur Commons.</t>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_Tractatus_de_herbis_:_F-K</t>
+          <t>Liste_des_simples_traités_dans_le_Tractatus_de_herbis_:_F-K</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cliquer sur les images pour atteindre les catégories dédiées sur Commons.</t>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_simples_trait%C3%A9s_dans_le_Tractatus_de_herbis_:_F-K</t>
+          <t>Liste_des_simples_traités_dans_le_Tractatus_de_herbis_:_F-K</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,7 +655,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cliquer sur les images pour atteindre les catégories dédiées sur Commons.</t>
